--- a/Assignment1/plots/Graphs.xlsx
+++ b/Assignment1/plots/Graphs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\marianna\epl425\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>1cpu</t>
   </si>
@@ -57,14 +57,6 @@
   </si>
   <si>
     <t>4CPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">234.33
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 229.72
-</t>
   </si>
 </sst>
 </file>
@@ -283,15 +275,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -305,15 +288,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
@@ -340,15 +314,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -365,18 +330,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -559,11 +551,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="159796592"/>
-        <c:axId val="159797152"/>
+        <c:axId val="185265344"/>
+        <c:axId val="185265904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159796592"/>
+        <c:axId val="185265344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,7 +654,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159797152"/>
+        <c:crossAx val="185265904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -670,7 +662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159797152"/>
+        <c:axId val="185265904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -777,7 +769,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159796592"/>
+        <c:crossAx val="185265344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -866,7 +858,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -981,11 +972,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="233821584"/>
-        <c:axId val="233822144"/>
+        <c:axId val="244479024"/>
+        <c:axId val="244479584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="233821584"/>
+        <c:axId val="244479024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,7 +1008,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1084,7 +1074,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233822144"/>
+        <c:crossAx val="244479584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1092,7 +1082,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233822144"/>
+        <c:axId val="244479584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,7 +1128,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1199,7 +1188,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233821584"/>
+        <c:crossAx val="244479024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1288,7 +1277,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1403,11 +1391,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="233824384"/>
-        <c:axId val="234073984"/>
+        <c:axId val="245243936"/>
+        <c:axId val="245244496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="233824384"/>
+        <c:axId val="245243936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1439,7 +1427,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1506,7 +1493,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234073984"/>
+        <c:crossAx val="245244496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1514,7 +1501,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="234073984"/>
+        <c:axId val="245244496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1560,7 +1547,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1621,7 +1607,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233824384"/>
+        <c:crossAx val="245243936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1710,7 +1696,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1825,11 +1810,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="234076224"/>
-        <c:axId val="234076784"/>
+        <c:axId val="245246736"/>
+        <c:axId val="245247296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="234076224"/>
+        <c:axId val="245246736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1861,7 +1846,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1928,7 +1912,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234076784"/>
+        <c:crossAx val="245247296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1936,7 +1920,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="234076784"/>
+        <c:axId val="245247296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1982,7 +1966,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2043,7 +2026,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234076224"/>
+        <c:crossAx val="245246736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2269,13 +2252,13 @@
                 <c:formatCode>0.00;[Red]0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>234.33332999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>230.504666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>229.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2291,11 +2274,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="159700992"/>
-        <c:axId val="159701552"/>
+        <c:axId val="185268704"/>
+        <c:axId val="185269264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159700992"/>
+        <c:axId val="185268704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2394,7 +2377,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159701552"/>
+        <c:crossAx val="185269264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2402,7 +2385,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159701552"/>
+        <c:axId val="185269264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2509,7 +2492,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159700992"/>
+        <c:crossAx val="185268704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2713,11 +2696,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="163828144"/>
-        <c:axId val="163828704"/>
+        <c:axId val="244017200"/>
+        <c:axId val="244017760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163828144"/>
+        <c:axId val="244017200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2816,7 +2799,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163828704"/>
+        <c:crossAx val="244017760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2824,7 +2807,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163828704"/>
+        <c:axId val="244017760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2931,7 +2914,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163828144"/>
+        <c:crossAx val="244017200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3135,11 +3118,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="163830944"/>
-        <c:axId val="163831504"/>
+        <c:axId val="244020000"/>
+        <c:axId val="244020560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163830944"/>
+        <c:axId val="244020000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3238,7 +3221,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163831504"/>
+        <c:crossAx val="244020560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3246,7 +3229,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163831504"/>
+        <c:axId val="244020560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3353,7 +3336,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163830944"/>
+        <c:crossAx val="244020000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3557,11 +3540,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="163833744"/>
-        <c:axId val="163834304"/>
+        <c:axId val="244022800"/>
+        <c:axId val="244023360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="163833744"/>
+        <c:axId val="244022800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3660,7 +3643,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163834304"/>
+        <c:crossAx val="244023360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3668,7 +3651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163834304"/>
+        <c:axId val="244023360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3775,7 +3758,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163833744"/>
+        <c:crossAx val="244022800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3979,11 +3962,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="233631856"/>
-        <c:axId val="233632416"/>
+        <c:axId val="244646192"/>
+        <c:axId val="244646752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="233631856"/>
+        <c:axId val="244646192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4082,7 +4065,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233632416"/>
+        <c:crossAx val="244646752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4090,7 +4073,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233632416"/>
+        <c:axId val="244646752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4197,7 +4180,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233631856"/>
+        <c:crossAx val="244646192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4286,7 +4269,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4401,11 +4383,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="233634656"/>
-        <c:axId val="233635216"/>
+        <c:axId val="244648992"/>
+        <c:axId val="244649552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="233634656"/>
+        <c:axId val="244648992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4437,7 +4419,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4504,7 +4485,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233635216"/>
+        <c:crossAx val="244649552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4512,7 +4493,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233635216"/>
+        <c:axId val="244649552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4558,7 +4539,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4619,7 +4599,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233634656"/>
+        <c:crossAx val="244648992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4708,7 +4688,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4823,11 +4802,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="233637456"/>
-        <c:axId val="233638016"/>
+        <c:axId val="244651792"/>
+        <c:axId val="244473984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="233637456"/>
+        <c:axId val="244651792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4859,7 +4838,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4926,7 +4904,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233638016"/>
+        <c:crossAx val="244473984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4934,7 +4912,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233638016"/>
+        <c:axId val="244473984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4980,7 +4958,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5041,7 +5018,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233637456"/>
+        <c:crossAx val="244651792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5130,7 +5107,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5245,11 +5221,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="233818784"/>
-        <c:axId val="233819344"/>
+        <c:axId val="244476224"/>
+        <c:axId val="244476784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="233818784"/>
+        <c:axId val="244476224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5281,7 +5257,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5348,7 +5323,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233819344"/>
+        <c:crossAx val="244476784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5356,7 +5331,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233819344"/>
+        <c:axId val="244476784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5402,7 +5377,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5463,7 +5437,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="233818784"/>
+        <c:crossAx val="244476224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12647,7 +12621,7 @@
   <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12666,373 +12640,373 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="25"/>
-      <c r="T1" s="4" t="s">
+      <c r="S1" s="31"/>
+      <c r="T1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="4"/>
-      <c r="V1" s="12" t="s">
+      <c r="U1" s="34"/>
+      <c r="V1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="34"/>
+      <c r="W1" s="29"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="3" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="11" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="13"/>
-      <c r="R2" s="29" t="s">
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="37"/>
+      <c r="R2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="V2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="21" t="s">
+      <c r="W2" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
-      <c r="R3" s="30">
+      <c r="R3" s="21">
         <v>55</v>
       </c>
-      <c r="S3" s="29">
+      <c r="S3" s="20">
         <v>3.8545052742480501</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="6">
         <v>39</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="5">
         <v>4.3097875274748896</v>
       </c>
-      <c r="V3" s="17">
+      <c r="V3" s="11">
         <v>40</v>
       </c>
-      <c r="W3" s="17">
+      <c r="W3" s="11">
         <v>4.2765502494654299</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32">
+    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
         <v>1</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="20">
         <v>267.30666666666599</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="20">
         <v>3.8545052742480501</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="21">
         <v>55</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="22">
         <v>19</v>
       </c>
-      <c r="F4" s="37" t="s">
-        <v>11</v>
+      <c r="F4" s="26">
+        <v>234.33332999999999</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="5">
         <v>4.3097875274748896</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="6">
         <v>39</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="7">
         <v>13</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="10">
         <v>235.55666666666599</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="8">
         <v>4.2765502494654299</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="11">
         <v>40</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="12">
         <v>5</v>
       </c>
       <c r="Q4">
         <v>5</v>
       </c>
-      <c r="R4" s="30">
+      <c r="R4" s="21">
         <v>53</v>
       </c>
-      <c r="S4" s="29">
+      <c r="S4" s="20">
         <v>4.3477495979623102</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="6">
         <v>38</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="5">
         <v>4.3832807329231098</v>
       </c>
-      <c r="V4" s="17">
+      <c r="V4" s="11">
         <v>34</v>
       </c>
-      <c r="W4" s="17">
+      <c r="W4" s="11">
         <v>4.3367015946647998</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32">
+      <c r="A5" s="23">
         <v>5</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="20">
         <v>236.286</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="20">
         <v>4.3477495979623102</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="21">
         <v>53</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="22">
         <v>20</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="27">
         <v>230.504666666666</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="5">
         <v>4.3832807329231098</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="6">
         <v>38</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="7">
         <v>14</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="17">
         <v>232.02466666666601</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="11">
         <v>4.3367015946647998</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="11">
         <v>34</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="10">
         <v>12</v>
       </c>
-      <c r="N5" s="22"/>
+      <c r="N5" s="16"/>
       <c r="Q5">
         <v>10</v>
       </c>
-      <c r="R5" s="30">
+      <c r="R5" s="21">
         <v>83</v>
       </c>
-      <c r="S5" s="29">
+      <c r="S5" s="20">
         <v>4.1867821473766398</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="6">
         <v>49</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="5">
         <v>4.3902976509218501</v>
       </c>
-      <c r="V5" s="17">
+      <c r="V5" s="11">
         <v>50</v>
       </c>
-      <c r="W5" s="17">
+      <c r="W5" s="11">
         <v>4.3498685773155996</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32">
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
         <v>10</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="20">
         <v>244.89466666666601</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="20">
         <v>4.1867821473766398</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="21">
         <v>83</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="22">
         <v>21</v>
       </c>
-      <c r="F6" s="37" t="s">
-        <v>12</v>
+      <c r="F6" s="26">
+        <v>229.72</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="5">
         <v>4.3902976509218501</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="6">
         <v>49</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="7">
         <v>14</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="10">
         <v>231.325666666666</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="14">
         <v>4.3498685773155996</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="11">
         <v>50</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="12">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U7" s="35" t="s">
+      <c r="U7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="V7" s="28" t="s">
+      <c r="V7" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U8" s="31">
+      <c r="U8" s="22">
         <v>19</v>
       </c>
-      <c r="V8" s="29">
+      <c r="V8" s="20">
         <v>3.8545052742480501</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U9" s="31">
+      <c r="U9" s="22">
         <v>20</v>
       </c>
-      <c r="V9" s="29">
+      <c r="V9" s="20">
         <v>4.3477495979623102</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U10" s="31">
+      <c r="U10" s="22">
         <v>21</v>
       </c>
-      <c r="V10" s="29">
+      <c r="V10" s="20">
         <v>4.1867821473766398</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U11" s="36"/>
-      <c r="V11" s="36" t="s">
+      <c r="U11" s="25"/>
+      <c r="V11" s="25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U12" s="10">
+      <c r="U12" s="7">
         <v>13</v>
       </c>
-      <c r="V12" s="8">
+      <c r="V12" s="5">
         <v>4.3097875274748896</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U13" s="10">
+      <c r="U13" s="7">
         <v>14</v>
       </c>
-      <c r="V13" s="8">
+      <c r="V13" s="5">
         <v>4.3832807329231098</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U14" s="10">
+      <c r="U14" s="7">
         <v>14</v>
       </c>
-      <c r="V14" s="8">
+      <c r="V14" s="5">
         <v>4.3902976509218501</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U15" s="19"/>
-      <c r="V15" s="19" t="s">
+      <c r="U15" s="13"/>
+      <c r="V15" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U16" s="18">
+      <c r="U16" s="12">
         <v>5</v>
       </c>
-      <c r="V16" s="16">
+      <c r="V16" s="10">
         <v>4.2765502494654299</v>
       </c>
     </row>
     <row r="17" spans="21:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U17" s="18">
+      <c r="U17" s="12">
         <v>12</v>
       </c>
-      <c r="V17" s="16">
+      <c r="V17" s="10">
         <v>4.3367015946647998</v>
       </c>
     </row>
     <row r="18" spans="21:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U18" s="18">
+      <c r="U18" s="12">
         <v>14</v>
       </c>
-      <c r="V18" s="16">
+      <c r="V18" s="10">
         <v>4.3498685773155996</v>
       </c>
     </row>
